--- a/海王新粤排档_新.xlsx
+++ b/海王新粤排档_新.xlsx
@@ -620,7 +620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD236"/>
+  <dimension ref="A1:BD241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -47665,7 +47665,6 @@
           <t>10786</t>
         </is>
       </c>
-      <c r="T236" t="inlineStr"/>
       <c r="U236" t="inlineStr">
         <is>
           <t>2022</t>
@@ -47779,6 +47778,1067 @@
       <c r="AU236" t="inlineStr">
         <is>
           <t>1530.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>2,558</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>2397</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="W237" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="X237" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z237" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA237" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AB237" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC237" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD237" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AE237" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG237" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL237" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AM237" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AN237" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AO237" t="inlineStr">
+        <is>
+          <t>4960.0</t>
+        </is>
+      </c>
+      <c r="AP237" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AQ237" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AR237" t="inlineStr">
+        <is>
+          <t>4296.0</t>
+        </is>
+      </c>
+      <c r="AS237" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AT237" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AU237" t="inlineStr">
+        <is>
+          <t>1530.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>2,558</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>2397</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="W238" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="X238" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z238" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA238" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AB238" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC238" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD238" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AE238" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG238" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL238" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AM238" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AN238" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AO238" t="inlineStr">
+        <is>
+          <t>4960.0</t>
+        </is>
+      </c>
+      <c r="AP238" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AQ238" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AR238" t="inlineStr">
+        <is>
+          <t>4296.0</t>
+        </is>
+      </c>
+      <c r="AS238" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AT238" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AU238" t="inlineStr">
+        <is>
+          <t>1530.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>2,558</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>2397</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>10786</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="W239" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="X239" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z239" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA239" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AB239" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC239" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD239" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AE239" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG239" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL239" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AM239" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AN239" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AO239" t="inlineStr">
+        <is>
+          <t>4960.0</t>
+        </is>
+      </c>
+      <c r="AP239" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AQ239" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AR239" t="inlineStr">
+        <is>
+          <t>4296.0</t>
+        </is>
+      </c>
+      <c r="AS239" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AT239" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AU239" t="inlineStr">
+        <is>
+          <t>1530.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>3,407</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>2043</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>1745</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>9068.00</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>9068</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>9068</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>1744</t>
+        </is>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>1744</t>
+        </is>
+      </c>
+      <c r="W240" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="X240" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y240" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA240" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AB240" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC240" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD240" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AE240" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF240" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AG240" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL240" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AM240" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AN240" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AO240" t="inlineStr">
+        <is>
+          <t>3680.0</t>
+        </is>
+      </c>
+      <c r="AP240" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AQ240" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AR240" t="inlineStr">
+        <is>
+          <t>2148.0</t>
+        </is>
+      </c>
+      <c r="AS240" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AT240" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AU240" t="inlineStr">
+        <is>
+          <t>3240.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2022-03-20</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>3,407</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>2043</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>1745</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>9068.00</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>9068</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>9068</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr"/>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>1744</t>
+        </is>
+      </c>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>1744</t>
+        </is>
+      </c>
+      <c r="W241" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="X241" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Y241" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA241" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="AB241" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AC241" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AD241" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AE241" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF241" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AG241" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL241" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AM241" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档4人餐[248.0]</t>
+        </is>
+      </c>
+      <c r="AN241" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AO241" t="inlineStr">
+        <is>
+          <t>3680.0</t>
+        </is>
+      </c>
+      <c r="AP241" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档6人餐[358.0]</t>
+        </is>
+      </c>
+      <c r="AQ241" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AR241" t="inlineStr">
+        <is>
+          <t>2148.0</t>
+        </is>
+      </c>
+      <c r="AS241" t="inlineStr">
+        <is>
+          <t>珠海_海王新粤排档代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AT241" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AU241" t="inlineStr">
+        <is>
+          <t>3240.0</t>
         </is>
       </c>
     </row>
